--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.4285601964207</v>
+        <v>454.4910862107751</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.3637217479028</v>
+        <v>621.8547548851974</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.5142718126851</v>
+        <v>562.5058098575835</v>
       </c>
       <c r="AD2" t="n">
-        <v>366428.5601964208</v>
+        <v>454491.0862107751</v>
       </c>
       <c r="AE2" t="n">
-        <v>501363.7217479028</v>
+        <v>621854.7548851974</v>
       </c>
       <c r="AF2" t="n">
         <v>9.237811853432622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.99166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>453514.2718126851</v>
+        <v>562505.8098575835</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.6341403302229</v>
+        <v>211.576746681964</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.523205711602</v>
+        <v>289.4886389174245</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.2859032718314</v>
+        <v>261.8602495190872</v>
       </c>
       <c r="AD3" t="n">
-        <v>162634.1403302229</v>
+        <v>211576.746681964</v>
       </c>
       <c r="AE3" t="n">
-        <v>222523.205711602</v>
+        <v>289488.6389174245</v>
       </c>
       <c r="AF3" t="n">
         <v>1.618764176273909e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.695833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>201285.9032718314</v>
+        <v>261860.2495190872</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.3762937102632</v>
+        <v>210.3189000620042</v>
       </c>
       <c r="AB4" t="n">
-        <v>220.8021644738976</v>
+        <v>287.76759767972</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.7291157943564</v>
+        <v>260.3034620416122</v>
       </c>
       <c r="AD4" t="n">
-        <v>161376.2937102632</v>
+        <v>210318.9000620042</v>
       </c>
       <c r="AE4" t="n">
-        <v>220802.1644738976</v>
+        <v>287767.59767972</v>
       </c>
       <c r="AF4" t="n">
         <v>1.636656692300579e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.591666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>199729.1157943564</v>
+        <v>260303.4620416122</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.8947257260924</v>
+        <v>302.9448662378205</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.0757677310741</v>
+        <v>414.5025309708321</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.0966067407139</v>
+        <v>374.9429911729312</v>
       </c>
       <c r="AD2" t="n">
-        <v>244894.7257260924</v>
+        <v>302944.8662378205</v>
       </c>
       <c r="AE2" t="n">
-        <v>335075.7677310741</v>
+        <v>414502.5309708322</v>
       </c>
       <c r="AF2" t="n">
         <v>1.319537419801715e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>303096.6067407139</v>
+        <v>374942.9911729312</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.4385961155234</v>
+        <v>216.4535601786097</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.7826770227057</v>
+        <v>296.1613102933588</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.0932425841189</v>
+        <v>267.8960905040576</v>
       </c>
       <c r="AD3" t="n">
-        <v>158438.5961155234</v>
+        <v>216453.5601786097</v>
       </c>
       <c r="AE3" t="n">
-        <v>216782.6770227057</v>
+        <v>296161.3102933588</v>
       </c>
       <c r="AF3" t="n">
         <v>1.732730068045107e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.9125</v>
       </c>
       <c r="AH3" t="n">
-        <v>196093.2425841189</v>
+        <v>267896.0905040576</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.5022398352308</v>
+        <v>244.5678104658847</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.917080674343</v>
+        <v>334.628467849575</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.3018364837552</v>
+        <v>302.6919965321155</v>
       </c>
       <c r="AD2" t="n">
-        <v>188502.2398352308</v>
+        <v>244567.8104658847</v>
       </c>
       <c r="AE2" t="n">
-        <v>257917.080674343</v>
+        <v>334628.467849575</v>
       </c>
       <c r="AF2" t="n">
         <v>1.974852538949753e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>233301.8364837552</v>
+        <v>302691.9965321155</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.2864732089209</v>
+        <v>223.1477285610127</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.5204886857889</v>
+        <v>305.3205668000239</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.8062525726941</v>
+        <v>276.1812004248268</v>
       </c>
       <c r="AD2" t="n">
-        <v>166286.4732089209</v>
+        <v>223147.7285610127</v>
       </c>
       <c r="AE2" t="n">
-        <v>227520.4886857889</v>
+        <v>305320.566800024</v>
       </c>
       <c r="AF2" t="n">
         <v>1.903173611925651e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.90833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>205806.2525726942</v>
+        <v>276181.2004248268</v>
       </c>
     </row>
     <row r="3">
@@ -3042,28 +3042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.7081282880403</v>
+        <v>223.5693836401321</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.097415767149</v>
+        <v>305.897493881384</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.3281185431317</v>
+        <v>276.7030663952643</v>
       </c>
       <c r="AD3" t="n">
-        <v>166708.1282880403</v>
+        <v>223569.3836401321</v>
       </c>
       <c r="AE3" t="n">
-        <v>228097.415767149</v>
+        <v>305897.493881384</v>
       </c>
       <c r="AF3" t="n">
         <v>1.902476132001906e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.9125</v>
       </c>
       <c r="AH3" t="n">
-        <v>206328.1185431317</v>
+        <v>276703.0663952643</v>
       </c>
     </row>
   </sheetData>
@@ -3339,28 +3339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.9160945856221</v>
+        <v>269.6747969238648</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.3752408719824</v>
+        <v>368.9809543636101</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.6166213923647</v>
+        <v>333.7659299471684</v>
       </c>
       <c r="AD2" t="n">
-        <v>204916.0945856221</v>
+        <v>269674.7969238649</v>
       </c>
       <c r="AE2" t="n">
-        <v>280375.2408719824</v>
+        <v>368980.9543636101</v>
       </c>
       <c r="AF2" t="n">
         <v>1.988408491102105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.80833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>253616.6213923648</v>
+        <v>333765.9299471684</v>
       </c>
     </row>
   </sheetData>
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.6227335558088</v>
+        <v>330.5852344475961</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.3320101483574</v>
+        <v>452.3213021624312</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.0378674254411</v>
+        <v>409.1523919209827</v>
       </c>
       <c r="AD2" t="n">
-        <v>262622.7335558088</v>
+        <v>330585.2344475961</v>
       </c>
       <c r="AE2" t="n">
-        <v>359332.0101483574</v>
+        <v>452321.3021624312</v>
       </c>
       <c r="AF2" t="n">
         <v>1.209472013330541e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>325037.8674254411</v>
+        <v>409152.3919209827</v>
       </c>
     </row>
     <row r="3">
@@ -3742,28 +3742,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.5173436589066</v>
+        <v>206.0619871530397</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.5221787687731</v>
+        <v>281.9431016359346</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.9530445144208</v>
+        <v>255.0348477255122</v>
       </c>
       <c r="AD3" t="n">
-        <v>157517.3436589066</v>
+        <v>206061.9871530397</v>
       </c>
       <c r="AE3" t="n">
-        <v>215522.1787687731</v>
+        <v>281943.1016359346</v>
       </c>
       <c r="AF3" t="n">
         <v>1.727029988374185e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.704166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>194953.0445144208</v>
+        <v>255034.8477255122</v>
       </c>
     </row>
   </sheetData>
@@ -4039,28 +4039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.9055372898912</v>
+        <v>304.3201989684368</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.9351429532365</v>
+        <v>416.3843218882593</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.7827363276314</v>
+        <v>376.6451866063092</v>
       </c>
       <c r="AD2" t="n">
-        <v>230905.5372898912</v>
+        <v>304320.1989684368</v>
       </c>
       <c r="AE2" t="n">
-        <v>315935.1429532365</v>
+        <v>416384.3218882593</v>
       </c>
       <c r="AF2" t="n">
         <v>1.965160379255443e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>285782.7363276313</v>
+        <v>376645.1866063092</v>
       </c>
     </row>
   </sheetData>
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.4322875873897</v>
+        <v>232.9287848701664</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.0341954032574</v>
+        <v>318.7034395519512</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.1256686841491</v>
+        <v>288.2868305842943</v>
       </c>
       <c r="AD2" t="n">
-        <v>175432.2875873897</v>
+        <v>232928.7848701664</v>
       </c>
       <c r="AE2" t="n">
-        <v>240034.1954032574</v>
+        <v>318703.4395519512</v>
       </c>
       <c r="AF2" t="n">
         <v>1.705958281688988e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.94583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>217125.6686841491</v>
+        <v>288286.8305842943</v>
       </c>
     </row>
     <row r="3">
@@ -4442,28 +4442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.2070246096243</v>
+        <v>214.0819237198845</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.4117836072065</v>
+        <v>292.9163326613165</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.7079221542431</v>
+        <v>264.9608089828616</v>
       </c>
       <c r="AD3" t="n">
-        <v>166207.0246096243</v>
+        <v>214081.9237198845</v>
       </c>
       <c r="AE3" t="n">
-        <v>227411.7836072065</v>
+        <v>292916.3326613164</v>
       </c>
       <c r="AF3" t="n">
         <v>1.823378765020792e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.24166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>205707.9221542431</v>
+        <v>264960.8089828616</v>
       </c>
     </row>
   </sheetData>
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.8137693514655</v>
+        <v>276.6529921443434</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.3906526087384</v>
+        <v>378.5288289205147</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.8172289212688</v>
+        <v>342.402568756888</v>
       </c>
       <c r="AD2" t="n">
-        <v>218813.7693514655</v>
+        <v>276652.9921443434</v>
       </c>
       <c r="AE2" t="n">
-        <v>299390.6526087384</v>
+        <v>378528.8289205147</v>
       </c>
       <c r="AF2" t="n">
         <v>1.44558786066897e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.19166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>270817.2289212688</v>
+        <v>342402.568756888</v>
       </c>
     </row>
     <row r="3">
@@ -4845,28 +4845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.598898738767</v>
+        <v>215.4371105017843</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.6337660269944</v>
+        <v>294.7705590029321</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.0539820413312</v>
+        <v>266.6380705648571</v>
       </c>
       <c r="AD3" t="n">
-        <v>157598.898738767</v>
+        <v>215437.1105017843</v>
       </c>
       <c r="AE3" t="n">
-        <v>215633.7660269944</v>
+        <v>294770.5590029321</v>
       </c>
       <c r="AF3" t="n">
         <v>1.763581655256604e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.995833333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>195053.9820413312</v>
+        <v>266638.0705648571</v>
       </c>
     </row>
   </sheetData>
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.7354337569645</v>
+        <v>415.5326177103437</v>
       </c>
       <c r="AB2" t="n">
-        <v>448.4220791331758</v>
+        <v>568.5500595565785</v>
       </c>
       <c r="AC2" t="n">
-        <v>405.6253052650456</v>
+        <v>514.2884398375181</v>
       </c>
       <c r="AD2" t="n">
-        <v>327735.4337569645</v>
+        <v>415532.6177103437</v>
       </c>
       <c r="AE2" t="n">
-        <v>448422.0791331758</v>
+        <v>568550.0595565785</v>
       </c>
       <c r="AF2" t="n">
         <v>1.011583405641066e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.84166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>405625.3052650456</v>
+        <v>514288.4398375181</v>
       </c>
     </row>
     <row r="3">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.423886966538</v>
+        <v>209.2380618503933</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.4990395499134</v>
+        <v>286.2887471553781</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.5503592841695</v>
+        <v>258.9657509357333</v>
       </c>
       <c r="AD3" t="n">
-        <v>160423.886966538</v>
+        <v>209238.0618503933</v>
       </c>
       <c r="AE3" t="n">
-        <v>219499.0395499134</v>
+        <v>286288.7471553781</v>
       </c>
       <c r="AF3" t="n">
         <v>1.6585276228279e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.6625</v>
       </c>
       <c r="AH3" t="n">
-        <v>198550.3592841695</v>
+        <v>258965.7509357333</v>
       </c>
     </row>
     <row r="4">
@@ -5354,28 +5354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.6879815503564</v>
+        <v>209.5021564342117</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.8603854105242</v>
+        <v>286.6500930159889</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.8772188029959</v>
+        <v>259.2926104545596</v>
       </c>
       <c r="AD4" t="n">
-        <v>160687.9815503564</v>
+        <v>209502.1564342116</v>
       </c>
       <c r="AE4" t="n">
-        <v>219860.3854105242</v>
+        <v>286650.0930159889</v>
       </c>
       <c r="AF4" t="n">
         <v>1.658373799082507e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.6625</v>
       </c>
       <c r="AH4" t="n">
-        <v>198877.2188029959</v>
+        <v>259292.6104545596</v>
       </c>
     </row>
   </sheetData>
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.1619559969126</v>
+        <v>223.2462425133674</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.3501187430075</v>
+        <v>305.4553579357644</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.652142498136</v>
+        <v>276.3031272837528</v>
       </c>
       <c r="AD2" t="n">
-        <v>166161.9559969126</v>
+        <v>223246.2425133674</v>
       </c>
       <c r="AE2" t="n">
-        <v>227350.1187430075</v>
+        <v>305455.3579357644</v>
       </c>
       <c r="AF2" t="n">
         <v>1.873582660728857e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>205652.142498136</v>
+        <v>276303.1272837528</v>
       </c>
     </row>
     <row r="3">
@@ -5757,28 +5757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.2102096525783</v>
+        <v>223.2944961690332</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.4161415234903</v>
+        <v>305.5213807162473</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.7118641571131</v>
+        <v>276.36284894273</v>
       </c>
       <c r="AD3" t="n">
-        <v>166210.2096525783</v>
+        <v>223294.4961690332</v>
       </c>
       <c r="AE3" t="n">
-        <v>227416.1415234903</v>
+        <v>305521.3807162473</v>
       </c>
       <c r="AF3" t="n">
         <v>1.877993233764016e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.6375</v>
       </c>
       <c r="AH3" t="n">
-        <v>205711.8641571131</v>
+        <v>276362.84894273</v>
       </c>
     </row>
   </sheetData>
@@ -6054,28 +6054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.1157092711002</v>
+        <v>233.5213094829803</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.3375272182322</v>
+        <v>319.5141578675439</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.20917374345</v>
+        <v>289.0201750816974</v>
       </c>
       <c r="AD2" t="n">
-        <v>177115.7092711002</v>
+        <v>233521.3094829803</v>
       </c>
       <c r="AE2" t="n">
-        <v>242337.5272182322</v>
+        <v>319514.1578675439</v>
       </c>
       <c r="AF2" t="n">
         <v>1.958025358546689e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>219209.17374345</v>
+        <v>289020.1750816974</v>
       </c>
     </row>
   </sheetData>
@@ -9844,28 +9844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.17655760844</v>
+        <v>256.2841641132244</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.5762002342193</v>
+        <v>350.6592997988998</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.6117348084446</v>
+        <v>317.1928683796158</v>
       </c>
       <c r="AD2" t="n">
-        <v>191176.55760844</v>
+        <v>256284.1641132244</v>
       </c>
       <c r="AE2" t="n">
-        <v>261576.2002342193</v>
+        <v>350659.2997988998</v>
       </c>
       <c r="AF2" t="n">
         <v>1.988350824486346e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.82916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>236611.7348084446</v>
+        <v>317192.8683796158</v>
       </c>
     </row>
   </sheetData>
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.046037703957</v>
+        <v>355.1548613882849</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.2794376756013</v>
+        <v>485.9385496781219</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.7994352027165</v>
+        <v>439.5612565158791</v>
       </c>
       <c r="AD2" t="n">
-        <v>264046.037703957</v>
+        <v>355154.8613882849</v>
       </c>
       <c r="AE2" t="n">
-        <v>361279.4376756013</v>
+        <v>485938.5496781219</v>
       </c>
       <c r="AF2" t="n">
         <v>1.880817898018207e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>326799.4352027165</v>
+        <v>439561.2565158791</v>
       </c>
     </row>
   </sheetData>
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.8888267926064</v>
+        <v>252.5099527194236</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.6554907057512</v>
+        <v>345.4952572634488</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.206264926204</v>
+        <v>312.5216748159674</v>
       </c>
       <c r="AD2" t="n">
-        <v>194888.8267926064</v>
+        <v>252509.9527194236</v>
       </c>
       <c r="AE2" t="n">
-        <v>266655.4907057512</v>
+        <v>345495.2572634488</v>
       </c>
       <c r="AF2" t="n">
         <v>1.584077379283694e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.44166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>241206.264926204</v>
+        <v>312521.6748159674</v>
       </c>
     </row>
     <row r="3">
@@ -10544,28 +10544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.8898930719231</v>
+        <v>214.924749225304</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.3461143633536</v>
+        <v>294.0695237006678</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.5530816943652</v>
+        <v>266.0039410879315</v>
       </c>
       <c r="AD3" t="n">
-        <v>166889.8930719231</v>
+        <v>214924.749225304</v>
       </c>
       <c r="AE3" t="n">
-        <v>228346.1143633536</v>
+        <v>294069.5237006678</v>
       </c>
       <c r="AF3" t="n">
         <v>1.791428053868937e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.11666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>206553.0816943652</v>
+        <v>266003.9410879315</v>
       </c>
     </row>
   </sheetData>
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.7187063132137</v>
+        <v>371.5751712381123</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.878891932536</v>
+        <v>508.4055420275997</v>
       </c>
       <c r="AC2" t="n">
-        <v>363.5241345270614</v>
+        <v>459.8840306481447</v>
       </c>
       <c r="AD2" t="n">
-        <v>293718.7063132137</v>
+        <v>371575.1712381123</v>
       </c>
       <c r="AE2" t="n">
-        <v>401878.891932536</v>
+        <v>508405.5420275996</v>
       </c>
       <c r="AF2" t="n">
         <v>1.105341714203307e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.81666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>363524.1345270614</v>
+        <v>459884.0306481447</v>
       </c>
     </row>
     <row r="3">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.5740477547227</v>
+        <v>208.2556917195216</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.3362520480483</v>
+        <v>284.9446250032087</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.4985465894995</v>
+        <v>257.7499099152792</v>
       </c>
       <c r="AD3" t="n">
-        <v>159574.0477547227</v>
+        <v>208255.6917195217</v>
       </c>
       <c r="AE3" t="n">
-        <v>218336.2520480483</v>
+        <v>284944.6250032088</v>
       </c>
       <c r="AF3" t="n">
         <v>1.684012057275358e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.725</v>
       </c>
       <c r="AH3" t="n">
-        <v>197498.5465894995</v>
+        <v>257749.9099152792</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.1945945704827</v>
+        <v>458.5506268633285</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.1516937864773</v>
+        <v>627.4091975003148</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.422128625121</v>
+        <v>567.5301442652232</v>
       </c>
       <c r="AD2" t="n">
-        <v>350194.5945704827</v>
+        <v>458550.6268633285</v>
       </c>
       <c r="AE2" t="n">
-        <v>479151.6937864773</v>
+        <v>627409.1975003148</v>
       </c>
       <c r="AF2" t="n">
         <v>1.690557924341765e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.50416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>433422.128625121</v>
+        <v>567530.1442652232</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.2229534404732</v>
+        <v>223.4053383541215</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.1160193051612</v>
+        <v>305.6730398838973</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.104244831205</v>
+        <v>276.5000339722745</v>
       </c>
       <c r="AD2" t="n">
-        <v>176222.9534404732</v>
+        <v>223405.3383541215</v>
       </c>
       <c r="AE2" t="n">
-        <v>241116.0193051613</v>
+        <v>305673.0398838973</v>
       </c>
       <c r="AF2" t="n">
         <v>1.932881414980732e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.20416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>218104.244831205</v>
+        <v>276500.0339722745</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.635849639157</v>
+        <v>226.9313719151086</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.103253281695</v>
+        <v>310.4975145596593</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.9516445475189</v>
+        <v>280.864067556176</v>
       </c>
       <c r="AD2" t="n">
-        <v>169635.849639157</v>
+        <v>226931.3719151086</v>
       </c>
       <c r="AE2" t="n">
-        <v>232103.253281695</v>
+        <v>310497.5145596593</v>
       </c>
       <c r="AF2" t="n">
         <v>1.799383461037484e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>209951.6445475189</v>
+        <v>280864.067556176</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.0755135275606</v>
+        <v>213.7829334654665</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.2318443428676</v>
+        <v>292.5072410047028</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.5451560407463</v>
+        <v>264.5907604597913</v>
       </c>
       <c r="AD3" t="n">
-        <v>166075.5135275606</v>
+        <v>213782.9334654665</v>
       </c>
       <c r="AE3" t="n">
-        <v>227231.8443428676</v>
+        <v>292507.2410047028</v>
       </c>
       <c r="AF3" t="n">
         <v>1.851179265248549e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>205545.1560407463</v>
+        <v>264590.7604597913</v>
       </c>
     </row>
   </sheetData>
